--- a/VersionRecords/Version 5.0.2.1 20160923/版本Bug和特性计划及评审表v5.0.2.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.2.1 20160923/版本Bug和特性计划及评审表v5.0.2.1_马丁组.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -125,19 +125,17 @@
   </si>
   <si>
     <t>房东appAPP录入小区时，需要校验行政区和商圈必填</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,151 +168,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,194 +187,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -576,251 +250,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -846,7 +278,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,58 +303,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1184,12 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1199,9 +583,10 @@
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.875"/>
     <col min="8" max="8" width="9.875"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41.25" spans="1:19">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="40.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:20">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="16.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1295,8 +680,12 @@
       <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="8"/>
+      <c r="M2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="8">
+        <v>42636</v>
+      </c>
       <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
@@ -1306,7 +695,7 @@
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1341,8 +730,12 @@
       <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="8"/>
+      <c r="M3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="8">
+        <v>42636</v>
+      </c>
       <c r="O3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1352,7 +745,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1387,8 +780,12 @@
       <c r="L4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8"/>
+      <c r="M4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="8">
+        <v>42636</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +795,7 @@
       <c r="S4" s="12"/>
       <c r="T4" s="13"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1433,8 +830,12 @@
       <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="8"/>
+      <c r="M5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="8">
+        <v>42636</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +845,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1479,8 +880,12 @@
       <c r="L6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
+      <c r="M6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="8">
+        <v>42636</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +895,7 @@
       <c r="S6" s="12"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1525,8 +930,12 @@
       <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c r="M7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="8">
+        <v>42636</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1536,7 +945,7 @@
       <c r="S7" s="12"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1571,8 +980,12 @@
       <c r="L8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="8"/>
+      <c r="M8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="8">
+        <v>42636</v>
+      </c>
       <c r="O8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1582,59 +995,59 @@
       <c r="S8" s="12"/>
       <c r="T8" s="13"/>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="5"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="A10" s="5"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="5"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="5"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="5"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="5"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="5"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="5"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="5"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" ht="16.5" spans="1:3">
+    <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="5"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" ht="16.5" spans="1:3">
+    <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="5"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" ht="16.5" spans="1:3">
+    <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="5"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" ht="16.5" spans="1:3">
+    <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="5"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" ht="16.5" spans="1:3">
+    <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="5"/>
       <c r="C22" s="7"/>
     </row>
@@ -2171,7 +1584,7 @@
       <c r="C155" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>